--- a/biology/Zoologie/Cicadulina_bipunctella/Cicadulina_bipunctella.xlsx
+++ b/biology/Zoologie/Cicadulina_bipunctella/Cicadulina_bipunctella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicadulina bipunctella est une espèce d'insectes hémiptères de la famille des Cicadellidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa publication de 1904, Leopold Melichar indique que cette espèce mesure 3 mm.
 </t>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cicadulina bipunctata (Melichar, 1904)[1].
-L'espèce Cicadulina bipunctella a été décrite pour la première fois en 1904 par l'entomologiste morave Leopold Melichar (1856-1924) sous le protonyme Gnathodus bipunctatus[2].
-Cicadulina bipunctata a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cicadulina bipunctata (Melichar, 1904).
+L'espèce Cicadulina bipunctella a été décrite pour la première fois en 1904 par l'entomologiste morave Leopold Melichar (1856-1924) sous le protonyme Gnathodus bipunctatus.
+Cicadulina bipunctata a pour synonymes :
 Balclutha bipunctata (Melichar, 1904)
 Cicadula bipunctella Matsumura, 1908
 Cicadulina bipunctata (Melichar, 1904)
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de-AT) L. Melichar, « Neue Homopteren aus Süd-Schoa, Gala und Somal-Länden », Verhandlungen Zoologisch-Botanischen Gesellschaft in Wien, vol. 54,‎ 1904, p. 25–48 (ISSN 0084-5647, OCLC 01696071, DOI 10.5962/BHL.PART.27685, lire en ligne)</t>
         </is>
